--- a/dist/assets/BOs/Oranos.xlsx
+++ b/dist/assets/BOs/Oranos.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0B4593-86F3-4F2B-9F88-740F78CE5A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50BF96A-1AED-4358-83A8-F82894287A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
-    <sheet name="Feuil3" sheetId="4" r:id="rId2"/>
-    <sheet name="Feuil4" sheetId="5" r:id="rId3"/>
-    <sheet name="Feuil5" sheetId="6" r:id="rId4"/>
-    <sheet name="Blad1" sheetId="1" r:id="rId5"/>
+    <sheet name="Feuil2" sheetId="7" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="4" r:id="rId3"/>
+    <sheet name="Feuil4" sheetId="5" r:id="rId4"/>
+    <sheet name="Feuil5" sheetId="6" r:id="rId5"/>
+    <sheet name="Blad1" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="151">
   <si>
     <t>Archaic</t>
   </si>
@@ -1358,6 +1359,261 @@
   </si>
   <si>
     <t>Standard Ora/Kronos water - By Kvoth</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>/ 0 / 3</t>
+    </r>
+  </si>
+  <si>
+    <t>Initial 2 vills to hunt, use TC to kill multiple hunt targets if in range</t>
+  </si>
+  <si>
+    <t>Scout out map and enemy base with Oracles</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 3</t>
+    </r>
+  </si>
+  <si>
+    <t>2 to Gold</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">3 / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 3</t>
+    </r>
+  </si>
+  <si>
+    <t>At 150 gold, 1 gold citizen builds temple, 2nd gold citizen to Hunt</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">5 / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 3</t>
+    </r>
+  </si>
+  <si>
+    <t>When temple is finished, send builder to food</t>
+  </si>
+  <si>
+    <t>Pause citizen autoqueue but let 6th citizen continue training</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 3</t>
+    </r>
+  </si>
+  <si>
+    <t>Advance (2:00-2:10)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RE-ENABLE citizen autoqueue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> split citizens up as desired for rush, at least 1 to wood and 1 to food for citizen production post age up</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GZhVM3WpLeA</t>
+  </si>
+  <si>
+    <t>Oranos/Kronos - 6 Citizen Rush BO - By Chonikler IV</t>
   </si>
 </sst>
 </file>
@@ -1671,7 +1927,7 @@
     <xf numFmtId="165" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1736,6 +1992,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Excel Built-in Hyperlink" xfId="3" xr:uid="{1E964D8A-50E3-4121-B4FE-FF6AF441516A}"/>
@@ -1959,6 +2231,187 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19037647-D81D-430E-A8A8-87A77032A7C7}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.399999999999999">
+      <c r="A1" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6">
+      <c r="A2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+    </row>
+    <row r="3" spans="1:4" ht="13.8">
+      <c r="A3" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+    </row>
+    <row r="4" spans="1:4" ht="13.8">
+      <c r="A4" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.8">
+      <c r="A5" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+    </row>
+    <row r="6" spans="1:4" ht="13.8">
+      <c r="A6" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="37"/>
+    </row>
+    <row r="7" spans="1:4" ht="13.8">
+      <c r="A7" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="37"/>
+    </row>
+    <row r="8" spans="1:4" ht="13.8">
+      <c r="A8" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="37"/>
+    </row>
+    <row r="9" spans="1:4" ht="13.8">
+      <c r="A9" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.6">
+      <c r="A10" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+    </row>
+    <row r="11" spans="1:4" ht="13.8">
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+    </row>
+    <row r="12" spans="1:4" ht="13.8">
+      <c r="A12" s="37"/>
+      <c r="B12" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+    </row>
+    <row r="13" spans="1:4" ht="13.8">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="31"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+    </row>
+    <row r="16" spans="1:4" ht="15">
+      <c r="A16" s="40"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+    </row>
+    <row r="17" spans="1:2" ht="15">
+      <c r="A17" s="40"/>
+      <c r="B17" s="36"/>
+    </row>
+    <row r="18" spans="1:2" ht="15">
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="42"/>
+      <c r="B19" s="36"/>
+    </row>
+    <row r="20" spans="1:2" ht="15">
+      <c r="A20" s="41"/>
+      <c r="B20" s="36"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="42"/>
+      <c r="B21" s="36"/>
+    </row>
+    <row r="22" spans="1:2" ht="15">
+      <c r="A22" s="41"/>
+      <c r="B22" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A15:D15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0EC559-FD78-4F70-94A2-6BF7D2F10505}">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -2204,7 +2657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94E0169-6E3D-427D-907F-7E30692421AD}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -2392,7 +2845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACB90B0-B3ED-4C9C-8E92-C154A44269E5}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -2559,11 +3012,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E66BCD1-995E-4241-9AC0-51C2F48588D2}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -2808,7 +3261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
